--- a/SPFweb_parsed.xlsx
+++ b/SPFweb_parsed.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SPF_UNEMPF4</t>
+          <t>SPF_UNEMPF2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SPF_INFF4</t>
+          <t>SPF_INFF2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>SPF_COREINFF4</t>
+          <t>SPF_COREINFF2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SPF_gRPCEF4</t>
+          <t>SPF_gRPCEF2</t>
         </is>
       </c>
     </row>
@@ -1206,397 +1206,6 @@
       </c>
       <c r="E45" t="n">
         <v>2.5199</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B46" t="n">
-        <v>3.9027</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1.9432</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.8915</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2.568</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="n">
-        <v>3.8085</v>
-      </c>
-      <c r="C47" t="n">
-        <v>2.1056</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.0645</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2.5279</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B48" t="n">
-        <v>3.6794</v>
-      </c>
-      <c r="C48" t="n">
-        <v>2.1263</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.1326</v>
-      </c>
-      <c r="E48" t="n">
-        <v>2.2191</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B49" t="n">
-        <v>3.6483</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.0271</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2.1369</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2.4216</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B50" t="n">
-        <v>3.6948</v>
-      </c>
-      <c r="C50" t="n">
-        <v>2.1046</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.0045</v>
-      </c>
-      <c r="E50" t="n">
-        <v>2.3857</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B51" t="n">
-        <v>3.6594</v>
-      </c>
-      <c r="C51" t="n">
-        <v>2.0168</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.9516</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2.2671</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B52" t="n">
-        <v>3.6571</v>
-      </c>
-      <c r="C52" t="n">
-        <v>1.9127</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.0077</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2.1002</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B53" t="n">
-        <v>3.6401</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1.9065</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2.0056</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2.1751</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B54" t="n">
-        <v>3.5512</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1.9214</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.8793</v>
-      </c>
-      <c r="E54" t="n">
-        <v>2.1416</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B55" t="n">
-        <v>11.5548</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1.5867</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.406</v>
-      </c>
-      <c r="E55" t="n">
-        <v>7.3585</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B56" t="n">
-        <v>8.954599999999999</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1.3795</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.3346</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4.3368</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B57" t="n">
-        <v>6.3804</v>
-      </c>
-      <c r="C57" t="n">
-        <v>1.6699</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.6008</v>
-      </c>
-      <c r="E57" t="n">
-        <v>3.6628</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B58" t="n">
-        <v>5.7217</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1.9442</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.9319</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5.9929</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B59" t="n">
-        <v>4.9829</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2.1956</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.0339</v>
-      </c>
-      <c r="E59" t="n">
-        <v>4.7465</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B60" t="n">
-        <v>4.6527</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.2989</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.1341</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3.411</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B61" t="n">
-        <v>4.1193</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2.4572</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2.399</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3.2223</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B62" t="n">
-        <v>3.6401</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.7204</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2.668</v>
-      </c>
-      <c r="E62" t="n">
-        <v>3.1036</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B63" t="n">
-        <v>3.5648</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3.2384</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3.1169</v>
-      </c>
-      <c r="E63" t="n">
-        <v>2.2905</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B64" t="n">
-        <v>3.7953</v>
-      </c>
-      <c r="C64" t="n">
-        <v>3.3122</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3.1975</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2.019</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B65" t="n">
-        <v>4.1089</v>
-      </c>
-      <c r="C65" t="n">
-        <v>3.2441</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3.3132</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.6874</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B66" t="n">
-        <v>4.0796</v>
-      </c>
-      <c r="C66" t="n">
-        <v>2.647</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.829</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.9255</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B67" t="n">
-        <v>4.0841</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2.8685</v>
-      </c>
-      <c r="D67" t="n">
-        <v>2.9304</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.7569</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B68" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2.4556</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2.6822</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.8806</v>
       </c>
     </row>
   </sheetData>
